--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36927.67840751368</v>
+        <v>-39366.15150725994</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>57.92556443677483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>175.755342119045</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>106.2346111260816</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734125409</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.130577793840996</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>74.75769145492468</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>50.29985375340993</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>352.5069291089536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>188.244667048121</v>
       </c>
       <c r="V7" t="n">
-        <v>104.8035817377789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.18906253498161</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>183.4389290230747</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,10 +1187,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>28.85398989273417</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.7826052861577</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18.49605685438627</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>120.7871326503972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>136.2892803597729</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>226.9652268912045</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>148.2735510725091</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2135,13 +2135,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>34.21058558914839</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>158.1862028292477</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>27.77749086859481</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.29550035394</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>189.7822042251785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>36.22494343870321</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>24.94196613735054</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>73.98898794535445</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>177.6814669854336</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>180.1003471321689</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796279</v>
+        <v>1399.056131943217</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392162</v>
+        <v>1030.093615002805</v>
       </c>
       <c r="D2" t="n">
-        <v>494.2972677909588</v>
+        <v>671.8279163960549</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927146</v>
+        <v>286.0396637978107</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927146</v>
+        <v>286.0396637978107</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>286.0396637978107</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2902.029717514345</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2549.26106224423</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>2175.79530398315</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.37029594375</v>
+        <v>1785.655972007339</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836225</v>
+        <v>1762.102825034773</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836225</v>
+        <v>1762.102825034773</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836225</v>
+        <v>1762.102825034773</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836225</v>
+        <v>1762.102825034773</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836225</v>
+        <v>1615.212877536863</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836225</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836225</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.338775876041</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846022</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>2754.986613319168</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621305</v>
+        <v>2500.302125113281</v>
       </c>
       <c r="W4" t="n">
-        <v>590.80706612517</v>
+        <v>2210.884955076321</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271526</v>
+        <v>1982.895404178303</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836225</v>
+        <v>1762.102825034773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1938.906022842683</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C5" t="n">
-        <v>1569.943505902271</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1211.677807295521</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>825.8895546972763</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>414.9036499076687</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176919</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906804</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906804</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906804</v>
+        <v>1548.419770374778</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622425</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1455.632078341412</v>
       </c>
       <c r="V7" t="n">
-        <v>1029.046520592482</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="W7" t="n">
-        <v>1029.046520592482</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.046520592482</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4811,13 +4811,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4835,19 +4835,19 @@
         <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486388</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>553.2677753977071</v>
+        <v>973.8691772799922</v>
       </c>
       <c r="C10" t="n">
-        <v>384.3315924698002</v>
+        <v>804.9329943520853</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>654.8163549397495</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>506.9032613573564</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1546.151563682102</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1291.467075476215</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1002.049905439255</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>774.0603545412372</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>553.2677753977071</v>
+        <v>1155.517642110232</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453428</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453428</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,19 +5361,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1748.203275569898</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2297.191819870655</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2077.590354893597</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.515128237795</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1788.515128237795</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302817</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159287</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.759767795858</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1653.302830625877</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1363.885660588916</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6124,22 +6124,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>430.7826650753331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>263.586565790213</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>121.8747346324111</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>492.0395788753862</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>345.1496313774758</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.9535320923557</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6488,19 +6488,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,52 +6932,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="41">
@@ -7400,58 +7400,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="44">
@@ -7634,37 +7634,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.805783383408311e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>118.852422268276</v>
+        <v>118.8524222682754</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>148.7507642442416</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.73700564187163</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462254</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.95754073885496</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>59.21924749803964</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.43396264657</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>49.60187266209428</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>32.75273492913553</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462248</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>67.52345255978946</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>53.48834544997072</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>56.99921249228389</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>62.35543909864953</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>154.8900140445868</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>40.90318636666117</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.9259388694757149</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017513.062945906</v>
+        <v>1017513.062945907</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1099407.013021705</v>
+        <v>1099407.013021706</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1099407.013021705</v>
+        <v>1099407.013021706</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1099407.013021705</v>
+        <v>1099407.013021706</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794692</v>
+        <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457133</v>
       </c>
-      <c r="D2" t="n">
-        <v>328416.7079457134</v>
-      </c>
       <c r="E2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
@@ -26338,22 +26338,22 @@
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="M2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="N2" t="n">
         <v>322858.6398760023</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="N2" t="n">
-        <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760026</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.027935512</v>
+        <v>85055.02793551162</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.23934546713</v>
+        <v>47189.23934546733</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26442,19 +26442,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678117</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1185274.159854985</v>
+        <v>-1185460.553243523</v>
       </c>
       <c r="C6" t="n">
-        <v>130738.6443261882</v>
+        <v>130738.6443261873</v>
       </c>
       <c r="D6" t="n">
-        <v>130738.6443261877</v>
+        <v>130738.6443261875</v>
       </c>
       <c r="E6" t="n">
-        <v>-114233.4400420412</v>
+        <v>-114268.1779674766</v>
       </c>
       <c r="F6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398783</v>
       </c>
       <c r="G6" t="n">
-        <v>211179.021765314</v>
+        <v>211144.2838398783</v>
       </c>
       <c r="H6" t="n">
-        <v>211179.021765314</v>
+        <v>211144.2838398785</v>
       </c>
       <c r="I6" t="n">
-        <v>211179.0217653141</v>
+        <v>211144.2838398784</v>
       </c>
       <c r="J6" t="n">
-        <v>-6352.180631963449</v>
+        <v>-6386.918557399025</v>
       </c>
       <c r="K6" t="n">
-        <v>211179.021765314</v>
+        <v>211144.2838398782</v>
       </c>
       <c r="L6" t="n">
-        <v>211179.0217653141</v>
+        <v>211144.2838398785</v>
       </c>
       <c r="M6" t="n">
-        <v>126123.9938298022</v>
+        <v>126089.2559043669</v>
       </c>
       <c r="N6" t="n">
-        <v>211179.0217653141</v>
+        <v>211144.2838398782</v>
       </c>
       <c r="O6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398785</v>
       </c>
       <c r="P6" t="n">
-        <v>211179.021765314</v>
+        <v>211144.2838398783</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,13 +26984,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>296.7574771839081</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>175.7553421190445</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>221.5176473440533</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>161.8952304651872</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.59472895491338</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>360.6218719000435</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>33.73100954710003</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>97.96717115749183</v>
       </c>
       <c r="V7" t="n">
-        <v>147.3340615860491</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.544779128499</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>223.4371167186367</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>116.5670581301971</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>128.4292329194552</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28855,13 +28855,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.750640694000166e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860882997</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,22 +32081,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496642</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
